--- a/data/lookups/MLB_Teams_Template_2025.xlsx
+++ b/data/lookups/MLB_Teams_Template_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesakroeker/Downloads/MLB Data Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesakroeker/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4D7835-F637-7C40-9D0C-27E68547354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47675ECE-B02B-AF43-A973-6CEDC046513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="24120" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>City/Region</t>
   </si>
@@ -309,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +324,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -361,11 +367,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -684,7 +691,7 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -713,7 +720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -728,7 +735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -743,7 +750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -758,7 +765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -773,7 +780,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -788,7 +795,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -803,7 +810,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -817,8 +824,9 @@
       <c r="D9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -833,7 +841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -848,7 +856,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -863,7 +871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -878,7 +886,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -893,7 +901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -908,7 +916,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -987,9 +995,8 @@
       <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>Athletics</v>
+      <c r="C21" t="s">
+        <v>46</v>
       </c>
       <c r="D21" t="s">
         <v>89</v>
